--- a/public/houses.xlsx
+++ b/public/houses.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="28920" windowHeight="22160" tabRatio="379"/>
+    <workbookView xWindow="760" yWindow="1800" windowWidth="30320" windowHeight="21240" tabRatio="379"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="101716" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="396">
   <si>
     <t>№ п/п</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Дата начала обслуживания</t>
   </si>
   <si>
+    <t>Серия, тип проекта</t>
+  </si>
+  <si>
     <t>Войкова, 41а</t>
   </si>
   <si>
@@ -141,7 +144,7 @@
     <t>Железобетонные</t>
   </si>
   <si>
-    <t>н/у</t>
+    <t>753.4</t>
   </si>
   <si>
     <t>324.3</t>
@@ -168,9 +171,6 @@
     <t>Костромагорводоканал</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/2oAhl624eZ7wE</t>
-  </si>
-  <si>
     <t>https://yadi.sk/i/non6S-Z_eZ7zT</t>
   </si>
   <si>
@@ -189,6 +189,12 @@
     <t>https://yadi.sk/i/PRQY3HoqeyK5k</t>
   </si>
   <si>
+    <t>01-02-14</t>
+  </si>
+  <si>
+    <t>6748/98</t>
+  </si>
+  <si>
     <t>Горная, 11</t>
   </si>
   <si>
@@ -222,12 +228,24 @@
     <t>https://yadi.sk/i/x6f7MHWNecwNL</t>
   </si>
   <si>
+    <t>01-12-13</t>
+  </si>
+  <si>
+    <t>н/св</t>
+  </si>
+  <si>
     <t>Давыдовский-3, 28б</t>
   </si>
   <si>
     <t>2538.17</t>
   </si>
   <si>
+    <t>1485.9</t>
+  </si>
+  <si>
+    <t>1063.2</t>
+  </si>
+  <si>
     <t>442.46</t>
   </si>
   <si>
@@ -237,12 +255,24 @@
     <t>https://yadi.sk/i/ZvtFyRqWecwSn</t>
   </si>
   <si>
+    <t>01-04-13</t>
+  </si>
+  <si>
+    <t>86-017/1.2</t>
+  </si>
+  <si>
     <t>Дзержинского, 23</t>
   </si>
   <si>
     <t>933.2</t>
   </si>
   <si>
+    <t>1464.5</t>
+  </si>
+  <si>
+    <t>1267.3</t>
+  </si>
+  <si>
     <t>421.3</t>
   </si>
   <si>
@@ -258,6 +288,9 @@
     <t>https://yadi.sk/i/PbhV7M0JecwVm</t>
   </si>
   <si>
+    <t>01-03-14</t>
+  </si>
+  <si>
     <t>Димитрова,14</t>
   </si>
   <si>
@@ -279,6 +312,9 @@
     <t>https://yadi.sk/i/LTKSK7LsecwYS</t>
   </si>
   <si>
+    <t>01-07-14</t>
+  </si>
+  <si>
     <t>Ивановская, 6</t>
   </si>
   <si>
@@ -315,6 +351,12 @@
     <t>849.4</t>
   </si>
   <si>
+    <t>1463.5</t>
+  </si>
+  <si>
+    <t>485.3</t>
+  </si>
+  <si>
     <t>1-3320</t>
   </si>
   <si>
@@ -336,12 +378,21 @@
     <t>https://yadi.sk/d/oaEhBHXbecy4L</t>
   </si>
   <si>
+    <t>01-06-13</t>
+  </si>
+  <si>
     <t>Крестьянская, 10а</t>
   </si>
   <si>
     <t>355.3</t>
   </si>
   <si>
+    <t>2953.1</t>
+  </si>
+  <si>
+    <t>2679.2</t>
+  </si>
+  <si>
     <t>I-4621</t>
   </si>
   <si>
@@ -354,12 +405,12 @@
     <t>https://yadi.sk/i/heKqXH94ecwec</t>
   </si>
   <si>
+    <t>01-10-13</t>
+  </si>
+  <si>
     <t>Крестьянская, 10б</t>
   </si>
   <si>
-    <t>н/св</t>
-  </si>
-  <si>
     <t>1195.4</t>
   </si>
   <si>
@@ -369,6 +420,12 @@
     <t>228.3</t>
   </si>
   <si>
+    <t>1437.2</t>
+  </si>
+  <si>
+    <t>1263.1</t>
+  </si>
+  <si>
     <t>447.8</t>
   </si>
   <si>
@@ -381,6 +438,12 @@
     <t>Крестьянская, 10в</t>
   </si>
   <si>
+    <t>607.6</t>
+  </si>
+  <si>
+    <t>385.6</t>
+  </si>
+  <si>
     <t>394.6</t>
   </si>
   <si>
@@ -414,12 +477,21 @@
     <t>https://yadi.sk/i/q61sQ5YmecwhT</t>
   </si>
   <si>
+    <t>01-08-13</t>
+  </si>
+  <si>
     <t>Маршала Новикова, 57а</t>
   </si>
   <si>
     <t>503.8</t>
   </si>
   <si>
+    <t>1589.4</t>
+  </si>
+  <si>
+    <t>1267.6</t>
+  </si>
+  <si>
     <t>356.2</t>
   </si>
   <si>
@@ -435,6 +507,12 @@
     <t>505.9</t>
   </si>
   <si>
+    <t>1597.4</t>
+  </si>
+  <si>
+    <t>1275.7</t>
+  </si>
+  <si>
     <t>360.1</t>
   </si>
   <si>
@@ -444,372 +522,492 @@
     <t>https://yadi.sk/i/6TMDS8Yaecwm9</t>
   </si>
   <si>
-    <t>Машиностроителей, 18</t>
+    <t>Мира пр., 19</t>
   </si>
   <si>
     <t>Шифер</t>
   </si>
   <si>
-    <t>554.9</t>
-  </si>
-  <si>
-    <t>1387.3</t>
-  </si>
-  <si>
-    <t>413.4</t>
-  </si>
-  <si>
-    <t>23.7</t>
+    <t>293.5</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>221.8</t>
+  </si>
+  <si>
+    <t>462.1</t>
+  </si>
+  <si>
+    <t>286.2</t>
+  </si>
+  <si>
+    <t>95.5</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/7R8Eb_xIecwqK</t>
+  </si>
+  <si>
+    <t>Мира пр., 130</t>
+  </si>
+  <si>
+    <t>622.4</t>
+  </si>
+  <si>
+    <t>821.2</t>
+  </si>
+  <si>
+    <t>579.6</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/nCbBSU-mecwrc</t>
+  </si>
+  <si>
+    <t>Никитская, 10б</t>
+  </si>
+  <si>
+    <t>606.3</t>
+  </si>
+  <si>
+    <t>2066.4</t>
+  </si>
+  <si>
+    <t>352.2</t>
+  </si>
+  <si>
+    <t>177.9</t>
+  </si>
+  <si>
+    <t>56.8</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/NTKqV18_ecwtt</t>
+  </si>
+  <si>
+    <t>01-09-13</t>
+  </si>
+  <si>
+    <t>Новополянская, 7</t>
+  </si>
+  <si>
+    <t>6423.4</t>
+  </si>
+  <si>
+    <t>6251.1</t>
+  </si>
+  <si>
+    <t>172.3</t>
+  </si>
+  <si>
+    <t>2173.4</t>
+  </si>
+  <si>
+    <t>1362.1</t>
+  </si>
+  <si>
+    <t>I-11684</t>
+  </si>
+  <si>
+    <t>44:27:040305:14</t>
+  </si>
+  <si>
+    <t>1128.2</t>
+  </si>
+  <si>
+    <t>1079.2</t>
+  </si>
+  <si>
+    <t>407.2</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/g0n6x7MYecwuy</t>
+  </si>
+  <si>
+    <t>Овражная, 20/23</t>
+  </si>
+  <si>
+    <t>2833.1</t>
+  </si>
+  <si>
+    <t>1643.2</t>
+  </si>
+  <si>
+    <t>1276.5</t>
+  </si>
+  <si>
+    <t>1-6578</t>
+  </si>
+  <si>
+    <t>903.6</t>
+  </si>
+  <si>
+    <t>298.9</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/E4LHw4rsecwwB</t>
+  </si>
+  <si>
+    <t>01-01-13</t>
+  </si>
+  <si>
+    <t>Островского, 2</t>
+  </si>
+  <si>
+    <t>3805.2</t>
+  </si>
+  <si>
+    <t>2986.4</t>
+  </si>
+  <si>
+    <t>818.8</t>
+  </si>
+  <si>
+    <t>2371.3</t>
+  </si>
+  <si>
+    <t>1624.6</t>
+  </si>
+  <si>
+    <t>1516.8</t>
+  </si>
+  <si>
+    <t>1166.8</t>
+  </si>
+  <si>
+    <t>334.4</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/MC9Ywh66ecwxG</t>
+  </si>
+  <si>
+    <t>Островского, 42/12</t>
+  </si>
+  <si>
+    <t>382.5</t>
+  </si>
+  <si>
+    <t>3024.3</t>
+  </si>
+  <si>
+    <t>I-6888</t>
+  </si>
+  <si>
+    <t>44:27:040212:84</t>
+  </si>
+  <si>
+    <t>382.3</t>
+  </si>
+  <si>
+    <t>71.4</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/nZS79V9Cecwxx</t>
+  </si>
+  <si>
+    <t>Свердлова, 46/23</t>
+  </si>
+  <si>
+    <t>Смешанные</t>
+  </si>
+  <si>
+    <t>627.8</t>
+  </si>
+  <si>
+    <t>569.5</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>1024.5</t>
+  </si>
+  <si>
+    <t>751.3</t>
+  </si>
+  <si>
+    <t>477.41</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/RsNHQ6Pxecwz4</t>
+  </si>
+  <si>
+    <t>Свердлова, 48</t>
+  </si>
+  <si>
+    <t>714.2</t>
+  </si>
+  <si>
+    <t>386.2</t>
+  </si>
+  <si>
+    <t>58.6</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/9__o4JALecwzk</t>
+  </si>
+  <si>
+    <t>Симановского, 4</t>
+  </si>
+  <si>
+    <t>344.6</t>
+  </si>
+  <si>
+    <t>149.2</t>
+  </si>
+  <si>
+    <t>195.4</t>
+  </si>
+  <si>
+    <t>547.2</t>
+  </si>
+  <si>
+    <t>326.8</t>
+  </si>
+  <si>
+    <t>261.6</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/UbNG-PWzecx47</t>
+  </si>
+  <si>
+    <t>Симановского, 6</t>
+  </si>
+  <si>
+    <t>299.7</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>715.3</t>
+  </si>
+  <si>
+    <t>406.2</t>
+  </si>
+  <si>
+    <t>276.24</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/SURUS-inecx5C</t>
+  </si>
+  <si>
+    <t>Симановского, 15</t>
+  </si>
+  <si>
+    <t>307.3</t>
+  </si>
+  <si>
+    <t>1728.4</t>
+  </si>
+  <si>
+    <t>1539.6</t>
+  </si>
+  <si>
+    <t>I-9099</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Ho-YKTvmecx2K</t>
+  </si>
+  <si>
+    <t>Советская, 7</t>
+  </si>
+  <si>
+    <t>1710.3</t>
+  </si>
+  <si>
+    <t>1250.3</t>
+  </si>
+  <si>
+    <t>1930.4</t>
+  </si>
+  <si>
+    <t>450.8</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/1TCHFeyUecx6P</t>
+  </si>
+  <si>
+    <t>Советская, 9</t>
+  </si>
+  <si>
+    <t>329.8</t>
+  </si>
+  <si>
+    <t>190.9</t>
+  </si>
+  <si>
+    <t>138.9</t>
+  </si>
+  <si>
+    <t>524.9</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Ms5hkD9Jecx7g</t>
+  </si>
+  <si>
+    <t>Советская, 11</t>
+  </si>
+  <si>
+    <t>217.9</t>
+  </si>
+  <si>
+    <t>159.6</t>
+  </si>
+  <si>
+    <t>561.7</t>
+  </si>
+  <si>
+    <t>375.2</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/hQ9juYVLecx9C</t>
+  </si>
+  <si>
+    <t>Советская, 13</t>
+  </si>
+  <si>
+    <t>1270.7</t>
+  </si>
+  <si>
+    <t>847.5</t>
+  </si>
+  <si>
+    <t>422.8</t>
+  </si>
+  <si>
+    <t>923.6</t>
+  </si>
+  <si>
+    <t>392.1</t>
+  </si>
+  <si>
+    <t>44:27:040109:40</t>
+  </si>
+  <si>
+    <t>167.2</t>
+  </si>
+  <si>
+    <t>127.7</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/px6jlh2AecxCZ</t>
+  </si>
+  <si>
+    <t>Советская, 13а</t>
+  </si>
+  <si>
+    <t>1199.6</t>
+  </si>
+  <si>
+    <t>1159.8</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>1093.1</t>
+  </si>
+  <si>
+    <t>682.2</t>
+  </si>
+  <si>
+    <t>406.9</t>
+  </si>
+  <si>
+    <t>98.8</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/SU6_P-xpecxA7</t>
+  </si>
+  <si>
+    <t>Советская, 17</t>
+  </si>
+  <si>
+    <t>986.5</t>
+  </si>
+  <si>
+    <t>594.9</t>
+  </si>
+  <si>
+    <t>307.2</t>
+  </si>
+  <si>
+    <t>1724.1</t>
+  </si>
+  <si>
+    <t>1392.7</t>
+  </si>
+  <si>
+    <t>44:27:040109:41</t>
+  </si>
+  <si>
+    <t>716.8</t>
+  </si>
+  <si>
+    <t>327.1</t>
+  </si>
+  <si>
+    <t>106.2</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/G2Urw2cNecxDN</t>
+  </si>
+  <si>
+    <t>01-09-14</t>
+  </si>
+  <si>
+    <t>Строительный пр-д., 3</t>
+  </si>
+  <si>
+    <t>787.7</t>
+  </si>
+  <si>
+    <t>591.6</t>
+  </si>
+  <si>
+    <t>196.1</t>
+  </si>
+  <si>
+    <t>841.3</t>
+  </si>
+  <si>
+    <t>458.4</t>
+  </si>
+  <si>
+    <t>237.9</t>
   </si>
   <si>
     <t>ТС</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/_07x6PAXecwo5</t>
-  </si>
-  <si>
-    <t>Мира пр., 19</t>
-  </si>
-  <si>
-    <t>293.5</t>
-  </si>
-  <si>
-    <t>71.7</t>
-  </si>
-  <si>
-    <t>221.8</t>
-  </si>
-  <si>
-    <t>95.5</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/7R8Eb_xIecwqK</t>
-  </si>
-  <si>
-    <t>Мира пр., 130</t>
-  </si>
-  <si>
-    <t>622.4</t>
-  </si>
-  <si>
-    <t>23.6</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/nCbBSU-mecwrc</t>
-  </si>
-  <si>
-    <t>Никитская, 10б</t>
-  </si>
-  <si>
-    <t>606.3</t>
-  </si>
-  <si>
-    <t>352.2</t>
-  </si>
-  <si>
-    <t>177.9</t>
-  </si>
-  <si>
-    <t>56.8</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/NTKqV18_ecwtt</t>
-  </si>
-  <si>
-    <t>Новополянская, 7</t>
-  </si>
-  <si>
-    <t>6423.4</t>
-  </si>
-  <si>
-    <t>6251.1</t>
-  </si>
-  <si>
-    <t>172.3</t>
-  </si>
-  <si>
-    <t>I-11684</t>
-  </si>
-  <si>
-    <t>44:27:040305:14</t>
-  </si>
-  <si>
-    <t>1128.2</t>
-  </si>
-  <si>
-    <t>1079.2</t>
-  </si>
-  <si>
-    <t>407.2</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/g0n6x7MYecwuy</t>
-  </si>
-  <si>
-    <t>Овражная, 20/23</t>
-  </si>
-  <si>
-    <t>2833.1</t>
-  </si>
-  <si>
-    <t>1-6578</t>
-  </si>
-  <si>
-    <t>903.6</t>
-  </si>
-  <si>
-    <t>298.9</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/E4LHw4rsecwwB</t>
-  </si>
-  <si>
-    <t>Островского, 2</t>
-  </si>
-  <si>
-    <t>3805.2</t>
-  </si>
-  <si>
-    <t>2986.4</t>
-  </si>
-  <si>
-    <t>818.8</t>
-  </si>
-  <si>
-    <t>1516.8</t>
-  </si>
-  <si>
-    <t>1166.8</t>
-  </si>
-  <si>
-    <t>334.4</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/MC9Ywh66ecwxG</t>
-  </si>
-  <si>
-    <t>Островского, 42/12</t>
-  </si>
-  <si>
-    <t>382.5</t>
-  </si>
-  <si>
-    <t>I-6888</t>
-  </si>
-  <si>
-    <t>44:27:040212:84</t>
-  </si>
-  <si>
-    <t>382.3</t>
-  </si>
-  <si>
-    <t>71.4</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/nZS79V9Cecwxx</t>
-  </si>
-  <si>
-    <t>Свердлова, 46/23</t>
-  </si>
-  <si>
-    <t>Смешанные</t>
-  </si>
-  <si>
-    <t>627.8</t>
-  </si>
-  <si>
-    <t>569.5</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>477.41</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/RsNHQ6Pxecwz4</t>
-  </si>
-  <si>
-    <t>Свердлова, 48</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/9__o4JALecwzk</t>
-  </si>
-  <si>
-    <t>Симановского, 4</t>
-  </si>
-  <si>
-    <t>344.6</t>
-  </si>
-  <si>
-    <t>149.2</t>
-  </si>
-  <si>
-    <t>195.4</t>
-  </si>
-  <si>
-    <t>261.6</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/UbNG-PWzecx47</t>
-  </si>
-  <si>
-    <t>Симановского, 6</t>
-  </si>
-  <si>
-    <t>299.7</t>
-  </si>
-  <si>
-    <t>70.7</t>
-  </si>
-  <si>
-    <t>276.24</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/SURUS-inecx5C</t>
-  </si>
-  <si>
-    <t>Симановского, 15</t>
-  </si>
-  <si>
-    <t>307.3</t>
-  </si>
-  <si>
-    <t>I-9099</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/Ho-YKTvmecx2K</t>
-  </si>
-  <si>
-    <t>Советская, 7</t>
-  </si>
-  <si>
-    <t>1710.3</t>
-  </si>
-  <si>
-    <t>1250.3</t>
-  </si>
-  <si>
-    <t>450.8</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/1TCHFeyUecx6P</t>
-  </si>
-  <si>
-    <t>Советская, 9</t>
-  </si>
-  <si>
-    <t>329.8</t>
-  </si>
-  <si>
-    <t>190.9</t>
-  </si>
-  <si>
-    <t>138.9</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/Ms5hkD9Jecx7g</t>
-  </si>
-  <si>
-    <t>Советская, 11</t>
-  </si>
-  <si>
-    <t>217.9</t>
-  </si>
-  <si>
-    <t>159.6</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/hQ9juYVLecx9C</t>
-  </si>
-  <si>
-    <t>Советская, 13</t>
-  </si>
-  <si>
-    <t>1270.7</t>
-  </si>
-  <si>
-    <t>847.5</t>
-  </si>
-  <si>
-    <t>422.8</t>
-  </si>
-  <si>
-    <t>44:27:040109:40</t>
-  </si>
-  <si>
-    <t>167.2</t>
-  </si>
-  <si>
-    <t>127.7</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/px6jlh2AecxCZ</t>
-  </si>
-  <si>
-    <t>Советская, 13а</t>
-  </si>
-  <si>
-    <t>1199.6</t>
-  </si>
-  <si>
-    <t>1159.8</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>406.9</t>
-  </si>
-  <si>
-    <t>98.8</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/SU6_P-xpecxA7</t>
-  </si>
-  <si>
-    <t>Советская, 17</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/G2Urw2cNecxDN</t>
-  </si>
-  <si>
-    <t>Строительный пр-д., 3</t>
-  </si>
-  <si>
-    <t>787.7</t>
-  </si>
-  <si>
-    <t>591.6</t>
-  </si>
-  <si>
-    <t>196.1</t>
-  </si>
-  <si>
-    <t>237.9</t>
-  </si>
-  <si>
     <t>https://yadi.sk/i/DwcFItsCecxEH</t>
   </si>
   <si>
+    <t>01-08-14</t>
+  </si>
+  <si>
     <t>Строительный пр-д., 4</t>
   </si>
   <si>
@@ -846,6 +1044,12 @@
     <t>46.3</t>
   </si>
   <si>
+    <t>1043.1</t>
+  </si>
+  <si>
+    <t>676.5</t>
+  </si>
+  <si>
     <t>44:27:080125:28</t>
   </si>
   <si>
@@ -909,6 +1113,12 @@
     <t>630.9</t>
   </si>
   <si>
+    <t>1954.2</t>
+  </si>
+  <si>
+    <t>1730.1</t>
+  </si>
+  <si>
     <t>472.3</t>
   </si>
   <si>
@@ -918,12 +1128,21 @@
     <t>https://yadi.sk/i/yuSaGyfUecxK4</t>
   </si>
   <si>
+    <t>01-11-13</t>
+  </si>
+  <si>
     <t>Шагова, 6б</t>
   </si>
   <si>
     <t>150.2</t>
   </si>
   <si>
+    <t>762.4</t>
+  </si>
+  <si>
+    <t>674.2</t>
+  </si>
+  <si>
     <t>156.8</t>
   </si>
   <si>
@@ -945,6 +1164,12 @@
     <t>479.6</t>
   </si>
   <si>
+    <t>3423.4</t>
+  </si>
+  <si>
+    <t>2491.8</t>
+  </si>
+  <si>
     <t>44:27:040107:27</t>
   </si>
   <si>
@@ -963,6 +1188,12 @@
     <t>402.3</t>
   </si>
   <si>
+    <t>1508.4</t>
+  </si>
+  <si>
+    <t>1304.6</t>
+  </si>
+  <si>
     <t>303.84</t>
   </si>
   <si>
@@ -975,54 +1206,23 @@
     <t>https://yadi.sk/i/GAhCBGZrecxNX</t>
   </si>
   <si>
-    <t>01-02-14</t>
-  </si>
-  <si>
-    <t>01-12-13</t>
-  </si>
-  <si>
-    <t>01-04-13</t>
-  </si>
-  <si>
-    <t>01-03-14</t>
-  </si>
-  <si>
-    <t>01-07-14</t>
-  </si>
-  <si>
-    <t>01-06-13</t>
-  </si>
-  <si>
-    <t>01-10-13</t>
-  </si>
-  <si>
-    <t>01-08-13</t>
-  </si>
-  <si>
-    <t>01-08-14</t>
-  </si>
-  <si>
-    <t>01-09-13</t>
-  </si>
-  <si>
-    <t>01-01-13</t>
-  </si>
-  <si>
-    <t>01-09-14</t>
-  </si>
-  <si>
-    <t>01-11-13</t>
+    <t>https://yadi.sk/i/H3fK8qhDf2rDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1035,18 +1235,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1054,6 +1251,15 @@
       <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1065,8 +1271,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="9"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1079,113 +1285,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+  <cellStyles count="5">
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00DD0806"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFF2CC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -1477,92 +1682,42 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:spPr/>
+      <a:bodyPr/>
       <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:spPr/>
+      <a:bodyPr/>
       <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
@@ -1571,203 +1726,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV42"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="AP5" sqref="AP5"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="30.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="45.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="29.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="30.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="67" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="31.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="39.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29" style="1" customWidth="1"/>
-    <col min="27" max="27" width="31.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="27.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="40.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="27.33203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="31.1640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="29.5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="34.1640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="34.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="31.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="54.1640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="31.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="47.83203125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.83203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.33203125" style="14" customWidth="1"/>
-    <col min="42" max="42" width="27.1640625" style="1" customWidth="1"/>
-    <col min="45" max="47" width="18.33203125" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="17.33203125" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="8.83203125" style="1"/>
+    <col min="34" max="34" width="54.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="8.83203125" style="1"/>
+    <col min="49" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="13.5" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="3"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
+      <c r="AP1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
     </row>
     <row r="2" spans="1:47" ht="12.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6">
         <v>1999</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6">
         <v>9</v>
@@ -1779,7 +1910,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="6">
         <v>1</v>
@@ -1790,71 +1921,71 @@
       <c r="L2" s="6">
         <v>2037</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>40</v>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1078</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="6">
         <v>13078</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>40</v>
+      <c r="Q2" s="6">
+        <v>0</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="6">
         <v>1</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>50</v>
@@ -1865,38 +1996,40 @@
       <c r="AK2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO2" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
+      <c r="AO2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
     </row>
     <row r="3" spans="1:47" ht="12.75" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -1908,82 +2041,82 @@
         <v>8</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
       </c>
       <c r="N3" s="6">
         <v>2639</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" s="6">
         <v>1768</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>40</v>
+      <c r="Q3" s="6">
+        <v>0</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
       </c>
       <c r="T3" s="6">
         <v>64</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>40</v>
+      <c r="U3" s="6">
+        <v>0</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI3" s="7" t="s">
         <v>50</v>
@@ -1991,41 +2124,43 @@
       <c r="AJ3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AL3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AN3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO3" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP3" s="8"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
+      <c r="AO3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
     </row>
     <row r="4" spans="1:47" ht="12.75" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6">
         <v>1997</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
@@ -2037,37 +2172,37 @@
         <v>56</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="P4" s="6">
         <v>12889</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>40</v>
+      <c r="Q4" s="6">
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="T4" s="6">
         <v>337</v>
@@ -2076,43 +2211,43 @@
         <v>1</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI4" s="7" t="s">
         <v>50</v>
@@ -2120,41 +2255,43 @@
       <c r="AJ4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AK4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AL4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP4" s="8"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
+      <c r="AO4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
     </row>
     <row r="5" spans="1:47" ht="12.75" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6">
         <v>1954</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
@@ -2166,82 +2303,82 @@
         <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>40</v>
+        <v>81</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>50</v>
@@ -2249,41 +2386,43 @@
       <c r="AJ5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AK5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AL5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO5" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP5" s="8"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
+      <c r="AO5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="12.75" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6">
         <v>1966</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -2295,19 +2434,19 @@
         <v>91</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N6" s="6">
         <v>1342</v>
@@ -2319,58 +2458,58 @@
         <v>2289</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
       </c>
       <c r="T6" s="6">
         <v>417</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>40</v>
+      <c r="U6" s="6">
+        <v>0</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI6" s="7" t="s">
         <v>50</v>
@@ -2378,41 +2517,43 @@
       <c r="AJ6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AL6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO6" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="AP6" s="8"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
+      <c r="AO6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
     </row>
     <row r="7" spans="1:47" ht="12.75" customHeight="1">
       <c r="A7" s="6">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6">
         <v>1954</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2424,82 +2565,82 @@
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
       </c>
       <c r="N7" s="6">
         <v>2493</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="P7" s="6">
         <v>2906</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>40</v>
+      <c r="Q7" s="6">
+        <v>0</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>40</v>
+        <v>104</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI7" s="7" t="s">
         <v>50</v>
@@ -2507,41 +2648,43 @@
       <c r="AJ7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AK7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AL7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AN7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO7" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="AP7" s="8"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
+      <c r="AO7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
     </row>
     <row r="8" spans="1:47" ht="12.75" customHeight="1">
       <c r="A8" s="9">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C8" s="9">
         <v>1964</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="9">
         <v>5</v>
@@ -2553,82 +2696,82 @@
         <v>148</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>40</v>
+        <v>112</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>40</v>
+        <v>115</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI8" s="10" t="s">
         <v>50</v>
@@ -2637,40 +2780,42 @@
         <v>51</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO8" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP8" s="8"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
+      <c r="AO8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
     </row>
     <row r="9" spans="1:47" ht="12.75" customHeight="1">
       <c r="A9" s="6">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2682,82 +2827,82 @@
         <v>12</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>40</v>
+        <v>121</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>40</v>
+        <v>124</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>40</v>
+        <v>125</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
       </c>
       <c r="T9" s="6">
         <v>29</v>
       </c>
-      <c r="U9" s="6" t="s">
-        <v>40</v>
+      <c r="U9" s="6">
+        <v>0</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI9" s="7" t="s">
         <v>50</v>
@@ -2765,41 +2910,43 @@
       <c r="AJ9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK9" s="5" t="s">
+      <c r="AK9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM9" s="5" t="s">
+      <c r="AL9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN9" s="5" t="s">
+      <c r="AN9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO9" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="AP9" s="8"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
+      <c r="AO9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
     </row>
     <row r="10" spans="1:47" ht="12.75" customHeight="1">
       <c r="A10" s="6">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
@@ -2811,82 +2958,82 @@
         <v>35</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>40</v>
+        <v>124</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
       </c>
       <c r="R10" s="6">
         <v>586</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>40</v>
+        <v>136</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI10" s="7" t="s">
         <v>50</v>
@@ -2894,41 +3041,43 @@
       <c r="AJ10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AK10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM10" s="5" t="s">
+      <c r="AL10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN10" s="5" t="s">
+      <c r="AN10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO10" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="AP10" s="8"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
+      <c r="AO10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
     </row>
     <row r="11" spans="1:47" ht="12.75" customHeight="1">
       <c r="A11" s="6">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -2940,7 +3089,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -2951,71 +3100,71 @@
       <c r="L11" s="6">
         <v>444</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>40</v>
+      <c r="M11" s="6">
+        <v>0</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>40</v>
+        <v>124</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>40</v>
+        <v>141</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>40</v>
+        <v>142</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI11" s="7" t="s">
         <v>50</v>
@@ -3023,41 +3172,43 @@
       <c r="AJ11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM11" s="5" t="s">
+      <c r="AL11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN11" s="5" t="s">
+      <c r="AN11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO11" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="AP11" s="8"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
+      <c r="AO11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
     </row>
     <row r="12" spans="1:47" ht="12.75" customHeight="1">
       <c r="A12" s="6">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C12" s="6">
         <v>1954</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -3069,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="M12" s="6">
         <v>491</v>
@@ -3087,64 +3238,64 @@
         <v>1423</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="P12" s="6">
         <v>4780</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>40</v>
+        <v>115</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI12" s="7" t="s">
         <v>50</v>
@@ -3152,41 +3303,43 @@
       <c r="AJ12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK12" s="5" t="s">
+      <c r="AK12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM12" s="5" t="s">
+      <c r="AL12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN12" s="5" t="s">
+      <c r="AN12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO12" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP12" s="8"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
+      <c r="AO12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
     </row>
     <row r="13" spans="1:47" ht="12.75" customHeight="1">
       <c r="A13" s="6">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6">
         <v>2</v>
@@ -3198,82 +3351,82 @@
         <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>40</v>
+        <v>154</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="P13" s="6">
         <v>1002</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>40</v>
+      <c r="Q13" s="6">
+        <v>0</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>40</v>
+        <v>158</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI13" s="7" t="s">
         <v>50</v>
@@ -3281,41 +3434,43 @@
       <c r="AJ13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK13" s="5" t="s">
+      <c r="AK13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM13" s="5" t="s">
+      <c r="AL13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN13" s="5" t="s">
+      <c r="AN13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO13" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP13" s="8"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
+      <c r="AO13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
     </row>
     <row r="14" spans="1:47" ht="12.75" customHeight="1">
       <c r="A14" s="6">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -3327,82 +3482,82 @@
         <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>40</v>
+        <v>161</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="P14" s="6">
         <v>1002</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>40</v>
+      <c r="Q14" s="6">
+        <v>0</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>40</v>
+        <v>164</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>40</v>
+        <v>165</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI14" s="7" t="s">
         <v>50</v>
@@ -3410,41 +3565,43 @@
       <c r="AJ14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK14" s="5" t="s">
+      <c r="AK14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM14" s="5" t="s">
+      <c r="AL14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN14" s="5" t="s">
+      <c r="AN14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO14" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP14" s="8"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
+      <c r="AO14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
     </row>
     <row r="15" spans="1:47" ht="12.75" customHeight="1">
       <c r="A15" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1961</v>
+        <v>167</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -3453,85 +3610,85 @@
         <v>2</v>
       </c>
       <c r="H15" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="6">
-        <v>1968</v>
+        <v>171</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="P15" s="6">
-        <v>5511</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>40</v>
+        <v>5405</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>200</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>40</v>
+        <v>174</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI15" s="7" t="s">
         <v>50</v>
@@ -3539,41 +3696,43 @@
       <c r="AJ15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK15" s="5" t="s">
+      <c r="AK15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM15" s="5" t="s">
+      <c r="AL15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN15" s="5" t="s">
+      <c r="AN15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO15" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP15" s="8"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
+      <c r="AO15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
     </row>
     <row r="16" spans="1:47" ht="12.75" customHeight="1">
       <c r="A16" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>176</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1962</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -3582,85 +3741,85 @@
         <v>2</v>
       </c>
       <c r="H16" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>152</v>
+        <v>177</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="P16" s="6">
-        <v>5405</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>40</v>
+        <v>5467</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>200</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>40</v>
+        <v>320</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>40</v>
+        <v>180</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI16" s="7" t="s">
         <v>50</v>
@@ -3668,128 +3827,130 @@
       <c r="AJ16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK16" s="5" t="s">
+      <c r="AK16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM16" s="5" t="s">
+      <c r="AL16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN16" s="5" t="s">
+      <c r="AN16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO16" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP16" s="8"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
+      <c r="AO16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:47" ht="12.75" customHeight="1">
       <c r="A17" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C17" s="6">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>40</v>
+        <v>183</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>40</v>
+        <v>184</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1864</v>
       </c>
       <c r="P17" s="6">
-        <v>5467</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="6">
-        <v>320</v>
+        <v>6379</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>40</v>
+        <v>187</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH17" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI17" s="7" t="s">
         <v>50</v>
@@ -3797,386 +3958,392 @@
       <c r="AJ17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK17" s="5" t="s">
+      <c r="AK17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM17" s="5" t="s">
+      <c r="AL17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN17" s="5" t="s">
+      <c r="AN17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO17" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP17" s="8"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
+      <c r="AO17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
     </row>
     <row r="18" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A18" s="6">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1958</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>12</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="A18" s="9">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1982</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>256</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="6">
-        <v>6379</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA18" s="6" t="s">
+      <c r="J18" s="9">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="U18" s="9">
+        <v>2</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC18" s="6" t="s">
+      <c r="X18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AD18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE18" s="6" t="s">
+      <c r="AB18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AF18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI18" s="7" t="s">
+      <c r="AD18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AJ18" s="7" t="s">
+      <c r="AJ18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM18" s="5" t="s">
+      <c r="AK18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AN18" s="5" t="s">
+      <c r="AN18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO18" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP18" s="8"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
+      <c r="AO18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
     </row>
     <row r="19" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A19" s="9">
-        <v>19</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1982</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="9">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="A19" s="6">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1941</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="9">
-        <v>256</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="9">
-        <v>2</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="U19" s="9">
-        <v>2</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19" s="9" t="s">
+      <c r="H19" s="6">
+        <v>65</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1090</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE19" s="9" t="s">
+      <c r="AB19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AF19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI19" s="10" t="s">
+      <c r="AD19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AJ19" s="10" t="s">
+      <c r="AJ19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM19" s="11" t="s">
+      <c r="AK19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN19" s="5" t="s">
+      <c r="AN19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO19" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP19" s="8"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
+      <c r="AO19" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
     </row>
     <row r="20" spans="1:47" ht="12.75" customHeight="1">
       <c r="A20" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C20" s="6">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="6">
         <v>5</v>
       </c>
       <c r="G20" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20" s="6">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="6">
-        <v>1090</v>
+        <v>216</v>
+      </c>
+      <c r="P20" s="6">
+        <v>6855</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>40</v>
+        <v>219</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>0</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH20" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI20" s="7" t="s">
         <v>50</v>
@@ -4184,299 +4351,305 @@
       <c r="AJ20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK20" s="5" t="s">
+      <c r="AK20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM20" s="5" t="s">
+      <c r="AL20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN20" s="5" t="s">
+      <c r="AN20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO20" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="AP20" s="8"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
+      <c r="AO20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A21" s="6">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1935</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="A21" s="9">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6">
-        <v>6</v>
-      </c>
-      <c r="H21" s="6">
-        <v>52</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="6">
-        <v>6855</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA21" s="6" t="s">
+      <c r="E21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>13</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="O21" s="9">
+        <v>2781</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC21" s="6" t="s">
+      <c r="X21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AB21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AF21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI21" s="7" t="s">
+      <c r="AD21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH21" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AJ21" s="7" t="s">
+      <c r="AJ21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM21" s="5" t="s">
+      <c r="AK21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AN21" s="5" t="s">
+      <c r="AN21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO21" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP21" s="8"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
+      <c r="AO21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
     </row>
     <row r="22" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A22" s="9">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="A22" s="6">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="9">
+      <c r="D22" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>2</v>
       </c>
-      <c r="H22" s="9">
-        <v>13</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC22" s="9" t="s">
+      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="P22" s="6">
+        <v>8759</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE22" s="9" t="s">
+      <c r="AB22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AF22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI22" s="10" t="s">
+      <c r="AD22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AJ22" s="10" t="s">
+      <c r="AJ22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK22" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL22" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM22" s="11" t="s">
+      <c r="AK22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN22" s="5" t="s">
+      <c r="AN22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO22" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP22" s="8"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
+      <c r="AO22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
     </row>
     <row r="23" spans="1:47" ht="12.75" customHeight="1">
       <c r="A23" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>239</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1928</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
@@ -4485,85 +4658,85 @@
         <v>2</v>
       </c>
       <c r="H23" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J23" s="6">
         <v>0</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>200</v>
+      <c r="K23" s="6">
+        <v>359</v>
+      </c>
+      <c r="L23" s="6">
+        <v>359</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" s="6">
-        <v>8759</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>40</v>
+        <v>240</v>
+      </c>
+      <c r="O23" s="6">
+        <v>481</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>40</v>
+        <v>241</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>40</v>
+        <v>242</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH23" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH23" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI23" s="7" t="s">
         <v>50</v>
@@ -4571,128 +4744,130 @@
       <c r="AJ23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK23" s="5" t="s">
+      <c r="AK23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL23" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM23" s="5" t="s">
+      <c r="AL23" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN23" s="5" t="s">
+      <c r="AN23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO23" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP23" s="8"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
+      <c r="AO23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
     </row>
     <row r="24" spans="1:47" ht="12.75" customHeight="1">
       <c r="A24" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1928</v>
+        <v>244</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
       <c r="G24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
-      <c r="K24" s="6">
-        <v>359</v>
-      </c>
-      <c r="L24" s="6">
-        <v>359</v>
+      <c r="K24" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>40</v>
+        <v>252</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH24" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH24" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI24" s="7" t="s">
         <v>50</v>
@@ -4700,41 +4875,43 @@
       <c r="AJ24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK24" s="5" t="s">
+      <c r="AK24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL24" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM24" s="5" t="s">
+      <c r="AL24" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN24" s="5" t="s">
+      <c r="AN24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO24" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP24" s="8"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
+      <c r="AO24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
     </row>
     <row r="25" spans="1:47" ht="12.75" customHeight="1">
       <c r="A25" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -4746,82 +4923,82 @@
         <v>10</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>209</v>
+        <v>256</v>
+      </c>
+      <c r="M25" s="6">
+        <v>229</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>40</v>
+        <v>258</v>
+      </c>
+      <c r="P25" s="6">
+        <v>9105</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>211</v>
+        <v>259</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>40</v>
+        <v>260</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH25" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH25" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI25" s="7" t="s">
         <v>50</v>
@@ -4829,128 +5006,130 @@
       <c r="AJ25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK25" s="5" t="s">
+      <c r="AK25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL25" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM25" s="5" t="s">
+      <c r="AL25" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN25" s="5" t="s">
+      <c r="AN25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO25" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP25" s="8"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
+      <c r="AO25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
     </row>
     <row r="26" spans="1:47" ht="12.75" customHeight="1">
       <c r="A26" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F26" s="6">
         <v>2</v>
       </c>
       <c r="G26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="M26" s="6">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="6">
-        <v>9105</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>40</v>
+        <v>265</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>360</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <v>115</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH26" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI26" s="7" t="s">
         <v>50</v>
@@ -4958,128 +5137,130 @@
       <c r="AJ26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK26" s="5" t="s">
+      <c r="AK26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM26" s="5" t="s">
+      <c r="AL26" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN26" s="5" t="s">
+      <c r="AN26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO26" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP26" s="8"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
+      <c r="AO26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
     </row>
     <row r="27" spans="1:47" ht="12.75" customHeight="1">
       <c r="A27" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>40</v>
+        <v>270</v>
+      </c>
+      <c r="M27" s="6">
+        <v>460</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>40</v>
+        <v>271</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1468</v>
+      </c>
+      <c r="P27" s="6">
+        <v>9371</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
       </c>
       <c r="R27" s="6">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="T27" s="6">
-        <v>115</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>40</v>
+        <v>194</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH27" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH27" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI27" s="7" t="s">
         <v>50</v>
@@ -5087,128 +5268,130 @@
       <c r="AJ27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK27" s="5" t="s">
+      <c r="AK27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM27" s="5" t="s">
+      <c r="AL27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN27" s="5" t="s">
+      <c r="AN27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO27" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP27" s="8"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
+      <c r="AO27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
     </row>
     <row r="28" spans="1:47" ht="12.75" customHeight="1">
       <c r="A28" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
         <v>4</v>
       </c>
-      <c r="H28" s="6">
-        <v>31</v>
-      </c>
       <c r="I28" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="M28" s="6">
-        <v>460</v>
+        <v>276</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>40</v>
+        <v>278</v>
+      </c>
+      <c r="O28" s="6">
+        <v>358</v>
       </c>
       <c r="P28" s="6">
-        <v>9371</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>40</v>
+        <v>9373</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
       </c>
       <c r="R28" s="6">
-        <v>1000</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="T28" s="6">
-        <v>194</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>40</v>
+        <v>320</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH28" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH28" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI28" s="7" t="s">
         <v>50</v>
@@ -5216,41 +5399,43 @@
       <c r="AJ28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK28" s="5" t="s">
+      <c r="AK28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL28" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM28" s="5" t="s">
+      <c r="AL28" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN28" s="5" t="s">
+      <c r="AN28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO28" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="AP28" s="8"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
+      <c r="AO28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
     </row>
     <row r="29" spans="1:47" ht="12.75" customHeight="1">
       <c r="A29" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="6">
         <v>2</v>
@@ -5262,82 +5447,82 @@
         <v>4</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J29" s="6">
         <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="P29" s="6">
-        <v>9373</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>40</v>
+        <v>9315</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
       </c>
       <c r="R29" s="6">
-        <v>320</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>40</v>
+        <v>260</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>40</v>
+        <v>286</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y29" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH29" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI29" s="7" t="s">
         <v>50</v>
@@ -5345,128 +5530,130 @@
       <c r="AJ29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK29" s="5" t="s">
+      <c r="AK29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL29" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM29" s="5" t="s">
+      <c r="AL29" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN29" s="5" t="s">
+      <c r="AN29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO29" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP29" s="8"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
+      <c r="AO29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
     </row>
     <row r="30" spans="1:47" ht="12.75" customHeight="1">
       <c r="A30" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
         <v>2</v>
       </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
       <c r="H30" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="6">
-        <v>9315</v>
+        <v>293</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="R30" s="6">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>40</v>
+        <v>296</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH30" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH30" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI30" s="7" t="s">
         <v>50</v>
@@ -5474,41 +5661,43 @@
       <c r="AJ30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK30" s="5" t="s">
+      <c r="AK30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL30" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AM30" s="5" t="s">
+      <c r="AL30" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="5" t="s">
+      <c r="AN30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO30" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP30" s="8"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
+      <c r="AO30" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
     </row>
     <row r="31" spans="1:47" ht="12.75" customHeight="1">
       <c r="A31" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>298</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1972</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F31" s="6">
         <v>3</v>
@@ -5517,85 +5706,85 @@
         <v>2</v>
       </c>
       <c r="H31" s="6">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J31" s="6">
         <v>0</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>244</v>
+        <v>303</v>
+      </c>
+      <c r="P31" s="6">
+        <v>9317</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
       </c>
       <c r="R31" s="6">
-        <v>600</v>
+        <v>468</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>40</v>
+        <v>305</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE31" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH31" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH31" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI31" s="7" t="s">
         <v>50</v>
@@ -5603,41 +5792,43 @@
       <c r="AJ31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK31" s="5" t="s">
+      <c r="AK31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL31" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM31" s="5" t="s">
+      <c r="AL31" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN31" s="5" t="s">
+      <c r="AN31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO31" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP31" s="8"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
+      <c r="AO31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
     </row>
     <row r="32" spans="1:47" ht="12.75" customHeight="1">
       <c r="A32" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1972</v>
+        <v>307</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F32" s="6">
         <v>3</v>
@@ -5646,85 +5837,85 @@
         <v>2</v>
       </c>
       <c r="H32" s="6">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J32" s="6">
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" s="6">
-        <v>9317</v>
+        <v>312</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="6">
-        <v>468</v>
+        <v>313</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>40</v>
+        <v>316</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH32" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI32" s="7" t="s">
         <v>50</v>
@@ -5732,128 +5923,130 @@
       <c r="AJ32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK32" s="5" t="s">
+      <c r="AK32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL32" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM32" s="5" t="s">
+      <c r="AL32" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN32" s="5" t="s">
+      <c r="AN32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO32" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP32" s="8"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
+      <c r="AO32" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
     </row>
     <row r="33" spans="1:47" ht="12.75" customHeight="1">
       <c r="A33" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>57</v>
+        <v>319</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1949</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>22</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J33" s="6">
         <v>0</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>40</v>
+        <v>324</v>
+      </c>
+      <c r="P33" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>842</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U33" s="6" t="s">
-        <v>40</v>
+        <v>325</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y33" s="6" t="s">
-        <v>45</v>
+        <v>126</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH33" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI33" s="7" t="s">
         <v>50</v>
@@ -5861,41 +6054,43 @@
       <c r="AJ33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK33" s="5" t="s">
+      <c r="AK33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL33" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM33" s="5" t="s">
+      <c r="AL33" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN33" s="5" t="s">
+      <c r="AN33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO33" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="AP33" s="8"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
+      <c r="AO33" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
     </row>
     <row r="34" spans="1:47" ht="12.75" customHeight="1">
       <c r="A34" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="C34" s="6">
         <v>1949</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F34" s="6">
         <v>2</v>
@@ -5904,85 +6099,85 @@
         <v>1</v>
       </c>
       <c r="H34" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J34" s="6">
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>40</v>
+        <v>333</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1862</v>
       </c>
       <c r="P34" s="6">
-        <v>7</v>
+        <v>9845</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="R34" s="6">
-        <v>842</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>40</v>
+        <v>600</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>40</v>
+        <v>335</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH34" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI34" s="7" t="s">
         <v>50</v>
@@ -5990,41 +6185,43 @@
       <c r="AJ34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK34" s="5" t="s">
+      <c r="AK34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL34" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM34" s="5" t="s">
+      <c r="AL34" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN34" s="5" t="s">
+      <c r="AN34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO34" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP34" s="8"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
+      <c r="AO34" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
     </row>
     <row r="35" spans="1:47" ht="12.75" customHeight="1">
       <c r="A35" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="C35" s="6">
         <v>1949</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F35" s="6">
         <v>2</v>
@@ -6036,82 +6233,82 @@
         <v>27</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="O35" s="6">
-        <v>1862</v>
+        <v>341</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="P35" s="6">
-        <v>9845</v>
+        <v>9846</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="R35" s="6">
-        <v>600</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="U35" s="6" t="s">
-        <v>40</v>
+        <v>343</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <v>235</v>
+      </c>
+      <c r="U35" s="6">
+        <v>0</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W35" s="6" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y35" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH35" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH35" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI35" s="7" t="s">
         <v>50</v>
@@ -6119,128 +6316,130 @@
       <c r="AJ35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK35" s="5" t="s">
+      <c r="AK35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL35" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM35" s="5" t="s">
+      <c r="AL35" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN35" s="5" t="s">
+      <c r="AN35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO35" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP35" s="8"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
+      <c r="AO35" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
     </row>
     <row r="36" spans="1:47" ht="12.75" customHeight="1">
       <c r="A36" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="C36" s="6">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F36" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J36" s="6">
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>40</v>
+        <v>347</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>4505</v>
+      </c>
+      <c r="O36" s="6">
+        <v>3586</v>
       </c>
       <c r="P36" s="6">
-        <v>9846</v>
+        <v>10035</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="T36" s="6">
-        <v>235</v>
-      </c>
-      <c r="U36" s="6" t="s">
-        <v>40</v>
+        <v>188</v>
+      </c>
+      <c r="U36" s="6">
+        <v>0</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE36" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH36" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI36" s="7" t="s">
         <v>50</v>
@@ -6248,41 +6447,43 @@
       <c r="AJ36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK36" s="5" t="s">
+      <c r="AK36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL36" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM36" s="5" t="s">
+      <c r="AL36" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN36" s="5" t="s">
+      <c r="AN36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO36" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP36" s="8"/>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
+      <c r="AO36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
     </row>
     <row r="37" spans="1:47" ht="12.75" customHeight="1">
       <c r="A37" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="C37" s="6">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F37" s="6">
         <v>3</v>
@@ -6291,85 +6492,85 @@
         <v>3</v>
       </c>
       <c r="H37" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J37" s="6">
         <v>0</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="6">
-        <v>4505</v>
-      </c>
-      <c r="O37" s="6">
-        <v>3586</v>
-      </c>
-      <c r="P37" s="6">
-        <v>10035</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>280</v>
+        <v>355</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="T37" s="6">
-        <v>188</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>40</v>
+        <v>359</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y37" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH37" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH37" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI37" s="7" t="s">
         <v>50</v>
@@ -6377,128 +6578,130 @@
       <c r="AJ37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK37" s="5" t="s">
+      <c r="AK37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL37" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AM37" s="5" t="s">
+      <c r="AL37" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN37" s="5" t="s">
+      <c r="AN37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO37" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP37" s="8"/>
-      <c r="AS37" s="5"/>
-      <c r="AT37" s="5"/>
-      <c r="AU37" s="5"/>
+      <c r="AO37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
     </row>
     <row r="38" spans="1:47" ht="12.75" customHeight="1">
       <c r="A38" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1953</v>
+        <v>362</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38" s="6">
         <v>3</v>
       </c>
       <c r="G38" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J38" s="6">
         <v>0</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>287</v>
+        <v>245</v>
+      </c>
+      <c r="M38" s="6">
+        <v>294</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>40</v>
+        <v>365</v>
+      </c>
+      <c r="P38" s="6">
+        <v>10885</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>291</v>
+        <v>366</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>40</v>
+        <v>367</v>
+      </c>
+      <c r="U38" s="6">
+        <v>0</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W38" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y38" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH38" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH38" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI38" s="7" t="s">
         <v>50</v>
@@ -6506,128 +6709,130 @@
       <c r="AJ38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK38" s="5" t="s">
+      <c r="AK38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL38" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM38" s="5" t="s">
+      <c r="AL38" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN38" s="5" t="s">
+      <c r="AN38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO38" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP38" s="8"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
+      <c r="AO38" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
     </row>
     <row r="39" spans="1:47" ht="12.75" customHeight="1">
       <c r="A39" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>4</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="P39" s="6">
         <v>3</v>
       </c>
-      <c r="G39" s="6">
-        <v>4</v>
-      </c>
-      <c r="H39" s="6">
-        <v>15</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="M39" s="6">
-        <v>294</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="6">
-        <v>10885</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>40</v>
+      <c r="Q39" s="6">
+        <v>0</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>40</v>
+        <v>374</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>40</v>
+        <v>375</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>0</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH39" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI39" s="7" t="s">
         <v>50</v>
@@ -6635,128 +6840,130 @@
       <c r="AJ39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK39" s="5" t="s">
+      <c r="AK39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL39" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AM39" s="5" t="s">
+      <c r="AL39" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN39" s="5" t="s">
+      <c r="AN39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO39" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="AP39" s="8"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
+      <c r="AO39" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
     </row>
     <row r="40" spans="1:47" ht="12.75" customHeight="1">
       <c r="A40" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>377</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1938</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F40" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H40" s="6">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="P40" s="6">
-        <v>3</v>
+        <v>10896</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>301</v>
+        <v>383</v>
+      </c>
+      <c r="R40" s="6">
+        <v>1846</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="U40" s="6" t="s">
-        <v>40</v>
+        <v>385</v>
+      </c>
+      <c r="U40" s="6">
+        <v>0</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W40" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH40" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH40" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI40" s="7" t="s">
         <v>50</v>
@@ -6764,128 +6971,130 @@
       <c r="AJ40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK40" s="5" t="s">
+      <c r="AK40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL40" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM40" s="5" t="s">
+      <c r="AL40" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN40" s="5" t="s">
+      <c r="AN40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO40" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="AP40" s="8"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
+      <c r="AO40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
     </row>
     <row r="41" spans="1:47" ht="12.75" customHeight="1">
       <c r="A41" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1938</v>
+        <v>387</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F41" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H41" s="6">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>307</v>
+        <v>388</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>40</v>
+        <v>389</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="P41" s="6">
-        <v>10896</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="R41" s="6">
-        <v>1846</v>
+        <v>11126</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="U41" s="6" t="s">
-        <v>40</v>
+        <v>393</v>
+      </c>
+      <c r="U41" s="6">
+        <v>0</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W41" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y41" s="6" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH41" s="7" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="AI41" s="7" t="s">
         <v>50</v>
@@ -6893,288 +7102,120 @@
       <c r="AJ41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK41" s="5" t="s">
+      <c r="AK41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL41" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AM41" s="5" t="s">
+      <c r="AL41" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN41" s="5" t="s">
+      <c r="AN41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AO41" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP41" s="8"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
+      <c r="AO41" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
     </row>
-    <row r="42" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A42" s="6">
-        <v>42</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="6">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1</v>
-      </c>
-      <c r="H42" s="6">
-        <v>11</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P42" s="6">
-        <v>11126</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="T42" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="U42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG42" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO42" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP42" s="8"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="5"/>
-    </row>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="AH2" r:id="rId1"/>
-    <hyperlink ref="AI2" r:id="rId2"/>
-    <hyperlink ref="AJ2" r:id="rId3"/>
-    <hyperlink ref="AK2" r:id="rId4"/>
-    <hyperlink ref="AH3" r:id="rId5"/>
-    <hyperlink ref="AI3" r:id="rId6"/>
-    <hyperlink ref="AJ3" r:id="rId7"/>
-    <hyperlink ref="AH4" r:id="rId8"/>
-    <hyperlink ref="AI4" r:id="rId9"/>
-    <hyperlink ref="AJ4" r:id="rId10"/>
-    <hyperlink ref="AH5" r:id="rId11"/>
-    <hyperlink ref="AI5" r:id="rId12"/>
-    <hyperlink ref="AJ5" r:id="rId13"/>
-    <hyperlink ref="AH6" r:id="rId14"/>
-    <hyperlink ref="AI6" r:id="rId15"/>
-    <hyperlink ref="AJ6" r:id="rId16"/>
-    <hyperlink ref="AH7" r:id="rId17"/>
-    <hyperlink ref="AI7" r:id="rId18"/>
-    <hyperlink ref="AJ7" r:id="rId19"/>
-    <hyperlink ref="AH8" r:id="rId20"/>
-    <hyperlink ref="AI8" r:id="rId21"/>
-    <hyperlink ref="AJ8" r:id="rId22"/>
-    <hyperlink ref="AK8" r:id="rId23"/>
-    <hyperlink ref="AH9" r:id="rId24"/>
-    <hyperlink ref="AI9" r:id="rId25"/>
-    <hyperlink ref="AJ9" r:id="rId26"/>
-    <hyperlink ref="AH10" r:id="rId27"/>
-    <hyperlink ref="AI10" r:id="rId28"/>
-    <hyperlink ref="AJ10" r:id="rId29"/>
-    <hyperlink ref="AH11" r:id="rId30"/>
-    <hyperlink ref="AI11" r:id="rId31"/>
-    <hyperlink ref="AJ11" r:id="rId32"/>
-    <hyperlink ref="AH12" r:id="rId33"/>
-    <hyperlink ref="AI12" r:id="rId34"/>
-    <hyperlink ref="AJ12" r:id="rId35"/>
-    <hyperlink ref="AH13" r:id="rId36"/>
-    <hyperlink ref="AI13" r:id="rId37"/>
-    <hyperlink ref="AJ13" r:id="rId38"/>
-    <hyperlink ref="AH14" r:id="rId39"/>
-    <hyperlink ref="AI14" r:id="rId40"/>
-    <hyperlink ref="AJ14" r:id="rId41"/>
-    <hyperlink ref="AH15" r:id="rId42"/>
-    <hyperlink ref="AI15" r:id="rId43"/>
-    <hyperlink ref="AJ15" r:id="rId44"/>
-    <hyperlink ref="AH16" r:id="rId45"/>
-    <hyperlink ref="AI16" r:id="rId46"/>
-    <hyperlink ref="AJ16" r:id="rId47"/>
-    <hyperlink ref="AH17" r:id="rId48"/>
-    <hyperlink ref="AI17" r:id="rId49"/>
-    <hyperlink ref="AJ17" r:id="rId50"/>
-    <hyperlink ref="AH18" r:id="rId51"/>
-    <hyperlink ref="AI18" r:id="rId52"/>
-    <hyperlink ref="AJ18" r:id="rId53"/>
-    <hyperlink ref="AH19" r:id="rId54"/>
-    <hyperlink ref="AI19" r:id="rId55"/>
-    <hyperlink ref="AJ19" r:id="rId56"/>
-    <hyperlink ref="AK19" r:id="rId57"/>
-    <hyperlink ref="AH20" r:id="rId58"/>
-    <hyperlink ref="AI20" r:id="rId59"/>
-    <hyperlink ref="AJ20" r:id="rId60"/>
-    <hyperlink ref="AH21" r:id="rId61"/>
-    <hyperlink ref="AI21" r:id="rId62"/>
-    <hyperlink ref="AJ21" r:id="rId63"/>
-    <hyperlink ref="AH22" r:id="rId64"/>
-    <hyperlink ref="AI22" r:id="rId65"/>
-    <hyperlink ref="AJ22" r:id="rId66"/>
-    <hyperlink ref="AK22" r:id="rId67"/>
-    <hyperlink ref="AH23" r:id="rId68"/>
-    <hyperlink ref="AI23" r:id="rId69"/>
-    <hyperlink ref="AJ23" r:id="rId70"/>
-    <hyperlink ref="AH24" r:id="rId71"/>
-    <hyperlink ref="AI24" r:id="rId72"/>
-    <hyperlink ref="AJ24" r:id="rId73"/>
-    <hyperlink ref="AH25" r:id="rId74"/>
-    <hyperlink ref="AI25" r:id="rId75"/>
-    <hyperlink ref="AJ25" r:id="rId76"/>
-    <hyperlink ref="AH26" r:id="rId77"/>
-    <hyperlink ref="AI26" r:id="rId78"/>
-    <hyperlink ref="AJ26" r:id="rId79"/>
-    <hyperlink ref="AH27" r:id="rId80"/>
-    <hyperlink ref="AI27" r:id="rId81"/>
-    <hyperlink ref="AJ27" r:id="rId82"/>
-    <hyperlink ref="AH28" r:id="rId83"/>
-    <hyperlink ref="AI28" r:id="rId84"/>
-    <hyperlink ref="AJ28" r:id="rId85"/>
-    <hyperlink ref="AH29" r:id="rId86"/>
-    <hyperlink ref="AI29" r:id="rId87"/>
-    <hyperlink ref="AJ29" r:id="rId88"/>
-    <hyperlink ref="AH30" r:id="rId89"/>
-    <hyperlink ref="AI30" r:id="rId90"/>
-    <hyperlink ref="AJ30" r:id="rId91"/>
-    <hyperlink ref="AH31" r:id="rId92"/>
-    <hyperlink ref="AI31" r:id="rId93"/>
-    <hyperlink ref="AJ31" r:id="rId94"/>
-    <hyperlink ref="AH32" r:id="rId95"/>
-    <hyperlink ref="AI32" r:id="rId96"/>
-    <hyperlink ref="AJ32" r:id="rId97"/>
-    <hyperlink ref="AH33" r:id="rId98"/>
-    <hyperlink ref="AI33" r:id="rId99"/>
-    <hyperlink ref="AJ33" r:id="rId100"/>
-    <hyperlink ref="AH34" r:id="rId101"/>
-    <hyperlink ref="AI34" r:id="rId102"/>
-    <hyperlink ref="AJ34" r:id="rId103"/>
-    <hyperlink ref="AH35" r:id="rId104"/>
-    <hyperlink ref="AI35" r:id="rId105"/>
-    <hyperlink ref="AJ35" r:id="rId106"/>
-    <hyperlink ref="AH36" r:id="rId107"/>
-    <hyperlink ref="AI36" r:id="rId108"/>
-    <hyperlink ref="AJ36" r:id="rId109"/>
-    <hyperlink ref="AH37" r:id="rId110"/>
-    <hyperlink ref="AI37" r:id="rId111"/>
-    <hyperlink ref="AJ37" r:id="rId112"/>
-    <hyperlink ref="AH38" r:id="rId113"/>
-    <hyperlink ref="AI38" r:id="rId114"/>
-    <hyperlink ref="AJ38" r:id="rId115"/>
-    <hyperlink ref="AH39" r:id="rId116"/>
-    <hyperlink ref="AI39" r:id="rId117"/>
-    <hyperlink ref="AJ39" r:id="rId118"/>
-    <hyperlink ref="AH40" r:id="rId119"/>
-    <hyperlink ref="AI40" r:id="rId120"/>
-    <hyperlink ref="AJ40" r:id="rId121"/>
-    <hyperlink ref="AH41" r:id="rId122"/>
-    <hyperlink ref="AI41" r:id="rId123"/>
-    <hyperlink ref="AJ41" r:id="rId124"/>
-    <hyperlink ref="AH42" r:id="rId125"/>
-    <hyperlink ref="AI42" r:id="rId126"/>
-    <hyperlink ref="AJ42" r:id="rId127"/>
+    <hyperlink ref="AI2" r:id="rId1"/>
+    <hyperlink ref="AJ2" r:id="rId2"/>
+    <hyperlink ref="AK2" r:id="rId3"/>
+    <hyperlink ref="AI3" r:id="rId4"/>
+    <hyperlink ref="AJ3" r:id="rId5"/>
+    <hyperlink ref="AI4" r:id="rId6"/>
+    <hyperlink ref="AJ4" r:id="rId7"/>
+    <hyperlink ref="AI5" r:id="rId8"/>
+    <hyperlink ref="AJ5" r:id="rId9"/>
+    <hyperlink ref="AI6" r:id="rId10"/>
+    <hyperlink ref="AJ6" r:id="rId11"/>
+    <hyperlink ref="AI7" r:id="rId12"/>
+    <hyperlink ref="AJ7" r:id="rId13"/>
+    <hyperlink ref="AI8" r:id="rId14"/>
+    <hyperlink ref="AJ8" r:id="rId15"/>
+    <hyperlink ref="AK8" r:id="rId16"/>
+    <hyperlink ref="AI9" r:id="rId17"/>
+    <hyperlink ref="AJ9" r:id="rId18"/>
+    <hyperlink ref="AI10" r:id="rId19"/>
+    <hyperlink ref="AJ10" r:id="rId20"/>
+    <hyperlink ref="AI11" r:id="rId21"/>
+    <hyperlink ref="AJ11" r:id="rId22"/>
+    <hyperlink ref="AI12" r:id="rId23"/>
+    <hyperlink ref="AJ12" r:id="rId24"/>
+    <hyperlink ref="AI13" r:id="rId25"/>
+    <hyperlink ref="AJ13" r:id="rId26"/>
+    <hyperlink ref="AI14" r:id="rId27"/>
+    <hyperlink ref="AJ14" r:id="rId28"/>
+    <hyperlink ref="AI15" r:id="rId29"/>
+    <hyperlink ref="AJ15" r:id="rId30"/>
+    <hyperlink ref="AI16" r:id="rId31"/>
+    <hyperlink ref="AJ16" r:id="rId32"/>
+    <hyperlink ref="AI17" r:id="rId33"/>
+    <hyperlink ref="AJ17" r:id="rId34"/>
+    <hyperlink ref="AI18" r:id="rId35"/>
+    <hyperlink ref="AJ18" r:id="rId36"/>
+    <hyperlink ref="AK18" r:id="rId37"/>
+    <hyperlink ref="AI19" r:id="rId38"/>
+    <hyperlink ref="AJ19" r:id="rId39"/>
+    <hyperlink ref="AI20" r:id="rId40"/>
+    <hyperlink ref="AJ20" r:id="rId41"/>
+    <hyperlink ref="AI21" r:id="rId42"/>
+    <hyperlink ref="AJ21" r:id="rId43"/>
+    <hyperlink ref="AK21" r:id="rId44"/>
+    <hyperlink ref="AI22" r:id="rId45"/>
+    <hyperlink ref="AJ22" r:id="rId46"/>
+    <hyperlink ref="AI23" r:id="rId47"/>
+    <hyperlink ref="AJ23" r:id="rId48"/>
+    <hyperlink ref="AI24" r:id="rId49"/>
+    <hyperlink ref="AJ24" r:id="rId50"/>
+    <hyperlink ref="AI25" r:id="rId51"/>
+    <hyperlink ref="AJ25" r:id="rId52"/>
+    <hyperlink ref="AI26" r:id="rId53"/>
+    <hyperlink ref="AJ26" r:id="rId54"/>
+    <hyperlink ref="AI27" r:id="rId55"/>
+    <hyperlink ref="AJ27" r:id="rId56"/>
+    <hyperlink ref="AI28" r:id="rId57"/>
+    <hyperlink ref="AJ28" r:id="rId58"/>
+    <hyperlink ref="AI29" r:id="rId59"/>
+    <hyperlink ref="AJ29" r:id="rId60"/>
+    <hyperlink ref="AI30" r:id="rId61"/>
+    <hyperlink ref="AJ30" r:id="rId62"/>
+    <hyperlink ref="AI31" r:id="rId63"/>
+    <hyperlink ref="AJ31" r:id="rId64"/>
+    <hyperlink ref="AI32" r:id="rId65"/>
+    <hyperlink ref="AJ32" r:id="rId66"/>
+    <hyperlink ref="AI33" r:id="rId67"/>
+    <hyperlink ref="AJ33" r:id="rId68"/>
+    <hyperlink ref="AI34" r:id="rId69"/>
+    <hyperlink ref="AJ34" r:id="rId70"/>
+    <hyperlink ref="AI35" r:id="rId71"/>
+    <hyperlink ref="AJ35" r:id="rId72"/>
+    <hyperlink ref="AI36" r:id="rId73"/>
+    <hyperlink ref="AJ36" r:id="rId74"/>
+    <hyperlink ref="AI37" r:id="rId75"/>
+    <hyperlink ref="AJ37" r:id="rId76"/>
+    <hyperlink ref="AI38" r:id="rId77"/>
+    <hyperlink ref="AJ38" r:id="rId78"/>
+    <hyperlink ref="AI39" r:id="rId79"/>
+    <hyperlink ref="AJ39" r:id="rId80"/>
+    <hyperlink ref="AI40" r:id="rId81"/>
+    <hyperlink ref="AJ40" r:id="rId82"/>
+    <hyperlink ref="AI41" r:id="rId83"/>
+    <hyperlink ref="AJ41" r:id="rId84"/>
+    <hyperlink ref="AH2" r:id="rId85"/>
+    <hyperlink ref="AH3:AH41" r:id="rId86" display="https://yadi.sk/i/H3fK8qhDf2rDB"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
